--- a/src/KairosWeb_Groep6/Models/Domain/Excel/template.xlsx
+++ b/src/KairosWeb_Groep6/Models/Domain/Excel/template.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bureaublad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\KairosWeb_Groep6\src\KairosWeb_Groep6\Models\Domain\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16092" windowHeight="9060"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Resultaat" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -710,17 +710,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -737,14 +733,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -753,10 +741,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -781,14 +765,6 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -807,10 +783,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -885,48 +857,76 @@
       <alignment vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="44" fontId="9" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1268,349 +1268,349 @@
   <dimension ref="A1:AN284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="44.44140625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="15.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="15.88671875" style="2" customWidth="1"/>
     <col min="7" max="7" width="44.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.33203125" style="1" customWidth="1"/>
     <col min="10" max="40" width="9.109375" style="1"/>
-    <col min="41" max="16384" width="9.109375" style="3"/>
+    <col min="41" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="8"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="26" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="28"/>
+      <c r="I9" s="53"/>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="26" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="28"/>
+      <c r="I11" s="53"/>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="26" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="28"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="51"/>
+      <c r="C13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="26" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="28"/>
+      <c r="I13" s="53"/>
     </row>
     <row r="14" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="26" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="53"/>
     </row>
     <row r="15" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="26" t="s">
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="28"/>
+      <c r="I15" s="53"/>
     </row>
     <row r="16" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="53"/>
     </row>
     <row r="17" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="33" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="28"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="53"/>
     </row>
     <row r="19" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="28"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="53"/>
     </row>
     <row r="20" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48">
+      <c r="D20" s="55"/>
+      <c r="E20" s="40">
         <f>SUM(E8:E19)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="41">
         <f>SUM(F8:F19)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="54"/>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="53"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="54">
+      <c r="B21" s="44"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="56">
         <f>E20-F20</f>
         <v>0</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="56" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
